--- a/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 9 (13–17 de octubre 2025).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 9 (13–17 de octubre 2025).xlsx
@@ -645,7 +645,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>45943.0</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>45943.0</v>
@@ -711,7 +711,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>45943.0</v>
@@ -733,7 +733,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>45943.0</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>45944.0</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>45944.0</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>45944.0</v>
@@ -821,7 +821,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>45944.0</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
         <v>45945.0</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6">
         <v>45945.0</v>
@@ -887,7 +887,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="6">
         <v>45945.0</v>
@@ -909,7 +909,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
         <v>45945.0</v>
@@ -931,7 +931,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="6">
         <v>45946.0</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="6">
         <v>45946.0</v>
@@ -975,7 +975,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="6">
         <v>45946.0</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>45946.0</v>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
         <v>45947.0</v>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="6">
         <v>45947.0</v>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="6">
         <v>45947.0</v>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="6">
         <v>45947.0</v>
